--- a/Code/Results/Cases/Case_5_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.361961287415738</v>
+        <v>3.797283712024409</v>
       </c>
       <c r="C2">
-        <v>0.484810548025024</v>
+        <v>0.2129906763635745</v>
       </c>
       <c r="D2">
-        <v>0.1241804865131257</v>
+        <v>0.03761025079620595</v>
       </c>
       <c r="E2">
-        <v>0.0160447614815612</v>
+        <v>0.04996238046304025</v>
       </c>
       <c r="F2">
-        <v>7.182927734634973</v>
+        <v>6.637023374826981</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295737520074525</v>
+        <v>0.1855533544095849</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1793966204632795</v>
+        <v>0.3688527315500565</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960348133188006</v>
+        <v>3.743424325023682</v>
       </c>
       <c r="C3">
-        <v>0.4141283204426145</v>
+        <v>0.1987409035744179</v>
       </c>
       <c r="D3">
-        <v>0.107637947265161</v>
+        <v>0.03293470210834926</v>
       </c>
       <c r="E3">
-        <v>0.0160788755094976</v>
+        <v>0.05007737893529629</v>
       </c>
       <c r="F3">
-        <v>6.510791015079974</v>
+        <v>6.472368299668346</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.123319004710865</v>
+        <v>0.1839621642882392</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1634887643290526</v>
+        <v>0.3694447346956977</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722383974040724</v>
+        <v>3.713426736063468</v>
       </c>
       <c r="C4">
-        <v>0.3719633482377844</v>
+        <v>0.1902298304181329</v>
       </c>
       <c r="D4">
-        <v>0.09773279267065504</v>
+        <v>0.03005861569111801</v>
       </c>
       <c r="E4">
-        <v>0.01610745519605988</v>
+        <v>0.05015316951044058</v>
       </c>
       <c r="F4">
-        <v>6.110498511309032</v>
+        <v>6.373076997328241</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196104876171837</v>
+        <v>0.1830008451609295</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1542181908716174</v>
+        <v>0.3700680739760784</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627327599235628</v>
+        <v>3.701973054973735</v>
       </c>
       <c r="C5">
-        <v>0.3550450166128485</v>
+        <v>0.1868208218203335</v>
       </c>
       <c r="D5">
-        <v>0.09374927309482928</v>
+        <v>0.02888500651508252</v>
       </c>
       <c r="E5">
-        <v>0.0161209100807822</v>
+        <v>0.0501853602850193</v>
       </c>
       <c r="F5">
-        <v>5.950084054940078</v>
+        <v>6.333061975047315</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181280752780047</v>
+        <v>0.1826129447341991</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.150553644646763</v>
+        <v>0.3703874293019069</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.611652393911243</v>
+        <v>3.700117665120672</v>
       </c>
       <c r="C6">
-        <v>0.3522504507493238</v>
+        <v>0.1862583239030187</v>
       </c>
       <c r="D6">
-        <v>0.09309072339225111</v>
+        <v>0.02869002677719834</v>
       </c>
       <c r="E6">
-        <v>0.01612325053554392</v>
+        <v>0.05019078446745795</v>
       </c>
       <c r="F6">
-        <v>5.923599722944971</v>
+        <v>6.326444289193944</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1178835455165732</v>
+        <v>0.182548763553779</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1499516754626598</v>
+        <v>0.3704444044263653</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.721094567709542</v>
+        <v>3.713269150185738</v>
       </c>
       <c r="C7">
-        <v>0.3717341689428508</v>
+        <v>0.190183615936661</v>
       </c>
       <c r="D7">
-        <v>0.09767886832118222</v>
+        <v>0.03004279472020244</v>
       </c>
       <c r="E7">
-        <v>0.01610762946608491</v>
+        <v>0.05015359835705824</v>
       </c>
       <c r="F7">
-        <v>6.108324652602619</v>
+        <v>6.372535540803767</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1195903839163037</v>
+        <v>0.1829955983605025</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1541683252878414</v>
+        <v>0.3700721163522687</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.221532348996675</v>
+        <v>3.778074096969078</v>
       </c>
       <c r="C8">
-        <v>0.4601536505218746</v>
+        <v>0.2080275093989883</v>
       </c>
       <c r="D8">
-        <v>0.1184176427153574</v>
+        <v>0.03599906398513042</v>
       </c>
       <c r="E8">
-        <v>0.01605486739760364</v>
+        <v>0.05000095820831885</v>
       </c>
       <c r="F8">
-        <v>6.948339368338026</v>
+        <v>6.579870528619068</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273869732269119</v>
+        <v>0.1850013987654933</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1738010002424488</v>
+        <v>0.3690029195562801</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.28455968533558</v>
+        <v>3.929640425085211</v>
       </c>
       <c r="C9">
-        <v>0.6457497825224152</v>
+        <v>0.2449407732085263</v>
       </c>
       <c r="D9">
-        <v>0.1616278337382511</v>
+        <v>0.0476492681283105</v>
       </c>
       <c r="E9">
-        <v>0.01601802582726031</v>
+        <v>0.04974262354301551</v>
       </c>
       <c r="F9">
-        <v>8.715255123877796</v>
+        <v>7.001160671531068</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1439471130157628</v>
+        <v>0.1890637728075859</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2168521491975639</v>
+        <v>0.3689688983776023</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.137128951679244</v>
+        <v>4.056096055097328</v>
       </c>
       <c r="C10">
-        <v>0.7935485257072799</v>
+        <v>0.2732782103547038</v>
       </c>
       <c r="D10">
-        <v>0.1958115143990966</v>
+        <v>0.05620750908670402</v>
       </c>
       <c r="E10">
-        <v>0.01604210715110799</v>
+        <v>0.04957765890121091</v>
       </c>
       <c r="F10">
-        <v>10.12110476878755</v>
+        <v>7.320188397898704</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1572560063682573</v>
+        <v>0.1921337321437875</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2522615150437133</v>
+        <v>0.3702038565431991</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.546592154280688</v>
+        <v>4.116943542335889</v>
       </c>
       <c r="C11">
-        <v>0.8643947044760694</v>
+        <v>0.2864443681191915</v>
       </c>
       <c r="D11">
-        <v>0.2121377542182614</v>
+        <v>0.0601043852699803</v>
       </c>
       <c r="E11">
-        <v>0.01606731990282761</v>
+        <v>0.0495079728600174</v>
       </c>
       <c r="F11">
-        <v>10.79364703541154</v>
+        <v>7.467506660872232</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1636602389601549</v>
+        <v>0.1935503407979482</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2694714398706139</v>
+        <v>0.3710399777545348</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.705384016450125</v>
+        <v>4.140465708502916</v>
       </c>
       <c r="C12">
-        <v>0.8918591590528138</v>
+        <v>0.2914704472292158</v>
       </c>
       <c r="D12">
-        <v>0.2184570695584682</v>
+        <v>0.06158085589467532</v>
       </c>
       <c r="E12">
-        <v>0.01607926439656437</v>
+        <v>0.04948235255408107</v>
       </c>
       <c r="F12">
-        <v>11.05405714379157</v>
+        <v>7.523616571598325</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1661461718127626</v>
+        <v>0.1940897751049206</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2761759844735252</v>
+        <v>0.3713960968963619</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.671007791227851</v>
+        <v>4.135378370721071</v>
       </c>
       <c r="C13">
-        <v>0.8859137584136931</v>
+        <v>0.2903861848172653</v>
       </c>
       <c r="D13">
-        <v>0.2170895443675533</v>
+        <v>0.06126283113196962</v>
       </c>
       <c r="E13">
-        <v>0.01607657887203717</v>
+        <v>0.04948783620794028</v>
       </c>
       <c r="F13">
-        <v>10.99770042176891</v>
+        <v>7.511517763687607</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1656078891369148</v>
+        <v>0.1939734632978443</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2747231750763319</v>
+        <v>0.3713176427162637</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.559577117874767</v>
+        <v>4.118869077745273</v>
       </c>
       <c r="C14">
-        <v>0.8666407065596786</v>
+        <v>0.2868570538063295</v>
       </c>
       <c r="D14">
-        <v>0.2126547408610264</v>
+        <v>0.06022583759821032</v>
       </c>
       <c r="E14">
-        <v>0.01606825224984909</v>
+        <v>0.04950584967610983</v>
       </c>
       <c r="F14">
-        <v>10.81494990382237</v>
+        <v>7.472116320027339</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1638634725434187</v>
+        <v>0.1935946597188263</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2700190813634009</v>
+        <v>0.3710684839818015</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.491830034553857</v>
+        <v>4.108819325644731</v>
       </c>
       <c r="C15">
-        <v>0.8549221910372466</v>
+        <v>0.2847006353734969</v>
       </c>
       <c r="D15">
-        <v>0.20995696423347</v>
+        <v>0.05959076266032071</v>
       </c>
       <c r="E15">
-        <v>0.01606347586173973</v>
+        <v>0.04951698343870492</v>
       </c>
       <c r="F15">
-        <v>10.70378903651516</v>
+        <v>7.448024209400785</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1628032290389143</v>
+        <v>0.1933630249478497</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2671630697913372</v>
+        <v>0.3709210124719959</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.11085560577402</v>
+        <v>4.052186617698339</v>
       </c>
       <c r="C16">
-        <v>0.7890007270551394</v>
+        <v>0.2724233747548794</v>
       </c>
       <c r="D16">
-        <v>0.194762226918229</v>
+        <v>0.05595293697051318</v>
       </c>
       <c r="E16">
-        <v>0.01604077410584792</v>
+        <v>0.04958232066947033</v>
       </c>
       <c r="F16">
-        <v>10.07789693433983</v>
+        <v>7.310605624656546</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1568453663655305</v>
+        <v>0.1920415665983199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2511613373309984</v>
+        <v>0.370154738410335</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.883088253239976</v>
+        <v>4.01829714440521</v>
       </c>
       <c r="C17">
-        <v>0.7495613576535334</v>
+        <v>0.2649627157584575</v>
       </c>
       <c r="D17">
-        <v>0.1856560383903343</v>
+        <v>0.05372239029539116</v>
       </c>
       <c r="E17">
-        <v>0.01603072062166189</v>
+        <v>0.04962377355306979</v>
       </c>
       <c r="F17">
-        <v>9.703032854805713</v>
+        <v>7.226871022434295</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1532868827408223</v>
+        <v>0.1912361122478643</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2416459997432838</v>
+        <v>0.3697549504016138</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.754074044736058</v>
+        <v>3.999117340065482</v>
       </c>
       <c r="C18">
-        <v>0.7272085983597378</v>
+        <v>0.2606974098871717</v>
       </c>
       <c r="D18">
-        <v>0.1804896613789992</v>
+        <v>0.05243976932828787</v>
       </c>
       <c r="E18">
-        <v>0.0160262551452075</v>
+        <v>0.04964812051981482</v>
       </c>
       <c r="F18">
-        <v>9.490459678978823</v>
+        <v>7.178914792432494</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1512723453416527</v>
+        <v>0.1907747185415687</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2362747227341799</v>
+        <v>0.3695508210357872</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710716911324539</v>
+        <v>3.992676980278873</v>
       </c>
       <c r="C19">
-        <v>0.7196941126262573</v>
+        <v>0.2592576708901788</v>
       </c>
       <c r="D19">
-        <v>0.1787519586170987</v>
+        <v>0.05200554426004089</v>
       </c>
       <c r="E19">
-        <v>0.01602496016085797</v>
+        <v>0.04965645067408897</v>
       </c>
       <c r="F19">
-        <v>9.418980872144004</v>
+        <v>7.162712705277841</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1505955020200034</v>
+        <v>0.19061881854158</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2344727709092211</v>
+        <v>0.3694861392223032</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.907124198956296</v>
+        <v>4.02187237158779</v>
       </c>
       <c r="C20">
-        <v>0.7537246391005965</v>
+        <v>0.2657542330462377</v>
       </c>
       <c r="D20">
-        <v>0.186617864092284</v>
+        <v>0.05395979959142494</v>
       </c>
       <c r="E20">
-        <v>0.01603165227687742</v>
+        <v>0.04961930863836495</v>
       </c>
       <c r="F20">
-        <v>9.7426167273197</v>
+        <v>7.235763362737998</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1536622864412749</v>
+        <v>0.1913216586355233</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2426482062056721</v>
+        <v>0.3697948361024004</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592199959436755</v>
+        <v>4.123705192434045</v>
       </c>
       <c r="C21">
-        <v>0.8722833387692503</v>
+        <v>0.2878925442060449</v>
       </c>
       <c r="D21">
-        <v>0.2139534071252314</v>
+        <v>0.06053040357393513</v>
       </c>
       <c r="E21">
-        <v>0.01607062973363904</v>
+        <v>0.0495005378489155</v>
       </c>
       <c r="F21">
-        <v>10.8684637593604</v>
+        <v>7.483680625061538</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1643741065158935</v>
+        <v>0.1937058413397921</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2713954378851753</v>
+        <v>0.3711405955454978</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.062107444677167</v>
+        <v>4.19306119409049</v>
       </c>
       <c r="C22">
-        <v>0.9535517752140663</v>
+        <v>0.3025967111972818</v>
       </c>
       <c r="D22">
-        <v>0.2326325031158376</v>
+        <v>0.06482951492927214</v>
       </c>
       <c r="E22">
-        <v>0.01611030375222999</v>
+        <v>0.04942739151961795</v>
       </c>
       <c r="F22">
-        <v>11.638291903121</v>
+        <v>7.647599656653426</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1717356769660654</v>
+        <v>0.1952815536459056</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2912944276420859</v>
+        <v>0.37225038042817</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.809038495555626</v>
+        <v>4.155787212222151</v>
       </c>
       <c r="C23">
-        <v>0.9097857038589154</v>
+        <v>0.2947270187350455</v>
       </c>
       <c r="D23">
-        <v>0.2225789079655414</v>
+        <v>0.06253446271823293</v>
       </c>
       <c r="E23">
-        <v>0.01608769119626863</v>
+        <v>0.04946602208923689</v>
       </c>
       <c r="F23">
-        <v>11.22392874739165</v>
+        <v>7.559937092225027</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1677696332007486</v>
+        <v>0.1944389275098359</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2805611019868195</v>
+        <v>0.3716369810959463</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.896251574979772</v>
+        <v>4.020255065615629</v>
       </c>
       <c r="C24">
-        <v>0.7518414268053846</v>
+        <v>0.2653963136114612</v>
       </c>
       <c r="D24">
-        <v>0.1861828099561507</v>
+        <v>0.05385246764842577</v>
       </c>
       <c r="E24">
-        <v>0.01603122700653525</v>
+        <v>0.04962132562153987</v>
       </c>
       <c r="F24">
-        <v>9.724711769308158</v>
+        <v>7.231742563504042</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1534924697540134</v>
+        <v>0.1912829779117331</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2421948017396716</v>
+        <v>0.3697767236867122</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.986202509465784</v>
+        <v>3.885998975846519</v>
       </c>
       <c r="C25">
-        <v>0.5938615274664585</v>
+        <v>0.234744377173115</v>
       </c>
       <c r="D25">
-        <v>0.1495829881435355</v>
+        <v>0.0444990311174962</v>
       </c>
       <c r="E25">
-        <v>0.01601990429278888</v>
+        <v>0.04980813781521609</v>
       </c>
       <c r="F25">
-        <v>8.221184904678438</v>
+        <v>6.885560666850381</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1392966225073025</v>
+        <v>0.1879502952349839</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2046244815631439</v>
+        <v>0.3687570434240541</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.797283712024409</v>
+        <v>3.361961287415852</v>
       </c>
       <c r="C2">
-        <v>0.2129906763635745</v>
+        <v>0.484810548025024</v>
       </c>
       <c r="D2">
-        <v>0.03761025079620595</v>
+        <v>0.1241804865131826</v>
       </c>
       <c r="E2">
-        <v>0.04996238046304025</v>
+        <v>0.01604476148165568</v>
       </c>
       <c r="F2">
-        <v>6.637023374826981</v>
+        <v>7.182927734634859</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1855533544095849</v>
+        <v>0.1295737520074454</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3688527315500565</v>
+        <v>0.179396620463173</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.743424325023682</v>
+        <v>2.960348133187665</v>
       </c>
       <c r="C3">
-        <v>0.1987409035744179</v>
+        <v>0.4141283204422734</v>
       </c>
       <c r="D3">
-        <v>0.03293470210834926</v>
+        <v>0.1076379472655447</v>
       </c>
       <c r="E3">
-        <v>0.05007737893529629</v>
+        <v>0.01607887550949627</v>
       </c>
       <c r="F3">
-        <v>6.472368299668346</v>
+        <v>6.510791015079889</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1839621642882392</v>
+        <v>0.1233190047110639</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3694447346956977</v>
+        <v>0.1634887643289531</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.713426736063468</v>
+        <v>2.722383974040838</v>
       </c>
       <c r="C4">
-        <v>0.1902298304181329</v>
+        <v>0.3719633482375002</v>
       </c>
       <c r="D4">
-        <v>0.03005861569111801</v>
+        <v>0.09773279267062662</v>
       </c>
       <c r="E4">
-        <v>0.05015316951044058</v>
+        <v>0.01610745519604706</v>
       </c>
       <c r="F4">
-        <v>6.373076997328241</v>
+        <v>6.110498511309089</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1830008451609295</v>
+        <v>0.1196104876172228</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3700680739760784</v>
+        <v>0.1542181908714184</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.701973054973735</v>
+        <v>2.627327599235343</v>
       </c>
       <c r="C5">
-        <v>0.1868208218203335</v>
+        <v>0.3550450166121948</v>
       </c>
       <c r="D5">
-        <v>0.02888500651508252</v>
+        <v>0.09374927309542613</v>
       </c>
       <c r="E5">
-        <v>0.0501853602850193</v>
+        <v>0.01612091008076716</v>
       </c>
       <c r="F5">
-        <v>6.333061975047315</v>
+        <v>5.950084054940078</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1826129447341991</v>
+        <v>0.1181280752781291</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3703874293019069</v>
+        <v>0.1505536446465996</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.700117665120672</v>
+        <v>2.611652393911129</v>
       </c>
       <c r="C6">
-        <v>0.1862583239030187</v>
+        <v>0.3522504507494375</v>
       </c>
       <c r="D6">
-        <v>0.02869002677719834</v>
+        <v>0.09309072339222269</v>
       </c>
       <c r="E6">
-        <v>0.05019078446745795</v>
+        <v>0.01612325053561103</v>
       </c>
       <c r="F6">
-        <v>6.326444289193944</v>
+        <v>5.923599722944914</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.182548763553779</v>
+        <v>0.1178835455162961</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3704444044263653</v>
+        <v>0.1499516754626669</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.713269150185738</v>
+        <v>2.721094567709599</v>
       </c>
       <c r="C7">
-        <v>0.190183615936661</v>
+        <v>0.3717341689426803</v>
       </c>
       <c r="D7">
-        <v>0.03004279472020244</v>
+        <v>0.09767886832163697</v>
       </c>
       <c r="E7">
-        <v>0.05015359835705824</v>
+        <v>0.01610762946599786</v>
       </c>
       <c r="F7">
-        <v>6.372535540803767</v>
+        <v>6.108324652602647</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1829955983605025</v>
+        <v>0.1195903839163108</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3700721163522687</v>
+        <v>0.1541683252878059</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.778074096969078</v>
+        <v>3.221532348996732</v>
       </c>
       <c r="C8">
-        <v>0.2080275093989883</v>
+        <v>0.4601536505218462</v>
       </c>
       <c r="D8">
-        <v>0.03599906398513042</v>
+        <v>0.1184176427155137</v>
       </c>
       <c r="E8">
-        <v>0.05000095820831885</v>
+        <v>0.0160548673976153</v>
       </c>
       <c r="F8">
-        <v>6.579870528619068</v>
+        <v>6.948339368338026</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1850013987654933</v>
+        <v>0.1273869732268622</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3690029195562801</v>
+        <v>0.1738010002425057</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.929640425085211</v>
+        <v>4.28455968533541</v>
       </c>
       <c r="C9">
-        <v>0.2449407732085263</v>
+        <v>0.6457497825224436</v>
       </c>
       <c r="D9">
-        <v>0.0476492681283105</v>
+        <v>0.16162783373791</v>
       </c>
       <c r="E9">
-        <v>0.04974262354301551</v>
+        <v>0.01601802582722311</v>
       </c>
       <c r="F9">
-        <v>7.001160671531068</v>
+        <v>8.715255123877682</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1890637728075859</v>
+        <v>0.143947113015777</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3689688983776023</v>
+        <v>0.216852149197706</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.056096055097328</v>
+        <v>5.137128951679585</v>
       </c>
       <c r="C10">
-        <v>0.2732782103547038</v>
+        <v>0.7935485257082178</v>
       </c>
       <c r="D10">
-        <v>0.05620750908670402</v>
+        <v>0.1958115143988834</v>
       </c>
       <c r="E10">
-        <v>0.04957765890121091</v>
+        <v>0.01604210715105214</v>
       </c>
       <c r="F10">
-        <v>7.320188397898704</v>
+        <v>10.12110476878749</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1921337321437875</v>
+        <v>0.1572560063685202</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3702038565431991</v>
+        <v>0.2522615150438412</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.116943542335889</v>
+        <v>5.546592154280688</v>
       </c>
       <c r="C11">
-        <v>0.2864443681191915</v>
+        <v>0.8643947044760125</v>
       </c>
       <c r="D11">
-        <v>0.0601043852699803</v>
+        <v>0.2121377542184888</v>
       </c>
       <c r="E11">
-        <v>0.0495079728600174</v>
+        <v>0.01606731990282506</v>
       </c>
       <c r="F11">
-        <v>7.467506660872232</v>
+        <v>10.79364703541154</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1935503407979482</v>
+        <v>0.1636602389602402</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3710399777545348</v>
+        <v>0.2694714398705997</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.140465708502916</v>
+        <v>5.705384016449955</v>
       </c>
       <c r="C12">
-        <v>0.2914704472292158</v>
+        <v>0.891859159051819</v>
       </c>
       <c r="D12">
-        <v>0.06158085589467532</v>
+        <v>0.2184570695584256</v>
       </c>
       <c r="E12">
-        <v>0.04948235255408107</v>
+        <v>0.01607926439661134</v>
       </c>
       <c r="F12">
-        <v>7.523616571598325</v>
+        <v>11.05405714379168</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1940897751049206</v>
+        <v>0.1661461718128336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3713960968963619</v>
+        <v>0.2761759844736815</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.135378370721071</v>
+        <v>5.671007791227623</v>
       </c>
       <c r="C13">
-        <v>0.2903861848172653</v>
+        <v>0.8859137584142616</v>
       </c>
       <c r="D13">
-        <v>0.06126283113196962</v>
+        <v>0.217089544367596</v>
       </c>
       <c r="E13">
-        <v>0.04948783620794028</v>
+        <v>0.01607657887204161</v>
       </c>
       <c r="F13">
-        <v>7.511517763687607</v>
+        <v>10.99770042176891</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1939734632978443</v>
+        <v>0.1656078891369859</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3713176427162637</v>
+        <v>0.2747231750762893</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.118869077745273</v>
+        <v>5.559577117874028</v>
       </c>
       <c r="C14">
-        <v>0.2868570538063295</v>
+        <v>0.8666407065587975</v>
       </c>
       <c r="D14">
-        <v>0.06022583759821032</v>
+        <v>0.2126547408608133</v>
       </c>
       <c r="E14">
-        <v>0.04950584967610983</v>
+        <v>0.01606825224978492</v>
       </c>
       <c r="F14">
-        <v>7.472116320027339</v>
+        <v>10.81494990382237</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1935946597188263</v>
+        <v>0.1638634725435182</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3710684839818015</v>
+        <v>0.2700190813631593</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108819325644731</v>
+        <v>5.491830034553743</v>
       </c>
       <c r="C15">
-        <v>0.2847006353734969</v>
+        <v>0.8549221910373035</v>
       </c>
       <c r="D15">
-        <v>0.05959076266032071</v>
+        <v>0.2099569642336974</v>
       </c>
       <c r="E15">
-        <v>0.04951698343870492</v>
+        <v>0.01606347586170287</v>
       </c>
       <c r="F15">
-        <v>7.448024209400785</v>
+        <v>10.70378903651516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1933630249478497</v>
+        <v>0.1628032290391417</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3709210124719959</v>
+        <v>0.2671630697915361</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.052186617698339</v>
+        <v>5.110855605774248</v>
       </c>
       <c r="C16">
-        <v>0.2724233747548794</v>
+        <v>0.7890007270546562</v>
       </c>
       <c r="D16">
-        <v>0.05595293697051318</v>
+        <v>0.1947622269181437</v>
       </c>
       <c r="E16">
-        <v>0.04958232066947033</v>
+        <v>0.01604077410580729</v>
       </c>
       <c r="F16">
-        <v>7.310605624656546</v>
+        <v>10.0778969343398</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1920415665983199</v>
+        <v>0.1568453663653102</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.370154738410335</v>
+        <v>0.2511613373310126</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.01829714440521</v>
+        <v>4.883088253240032</v>
       </c>
       <c r="C17">
-        <v>0.2649627157584575</v>
+        <v>0.7495613576534481</v>
       </c>
       <c r="D17">
-        <v>0.05372239029539116</v>
+        <v>0.1856560383903059</v>
       </c>
       <c r="E17">
-        <v>0.04962377355306979</v>
+        <v>0.01603072062165556</v>
       </c>
       <c r="F17">
-        <v>7.226871022434295</v>
+        <v>9.703032854805798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1912361122478643</v>
+        <v>0.1532868827407867</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3697549504016138</v>
+        <v>0.2416459997432412</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.999117340065482</v>
+        <v>4.754074044736115</v>
       </c>
       <c r="C18">
-        <v>0.2606974098871717</v>
+        <v>0.7272085983601642</v>
       </c>
       <c r="D18">
-        <v>0.05243976932828787</v>
+        <v>0.1804896613787719</v>
       </c>
       <c r="E18">
-        <v>0.04964812051981482</v>
+        <v>0.01602625514521538</v>
       </c>
       <c r="F18">
-        <v>7.178914792432494</v>
+        <v>9.490459678978794</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1907747185415687</v>
+        <v>0.1512723453415816</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3695508210357872</v>
+        <v>0.2362747227341941</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.992676980278873</v>
+        <v>4.710716911324823</v>
       </c>
       <c r="C19">
-        <v>0.2592576708901788</v>
+        <v>0.7196941126262573</v>
       </c>
       <c r="D19">
-        <v>0.05200554426004089</v>
+        <v>0.1787519586170703</v>
       </c>
       <c r="E19">
-        <v>0.04965645067408897</v>
+        <v>0.01602496016078525</v>
       </c>
       <c r="F19">
-        <v>7.162712705277841</v>
+        <v>9.418980872144033</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.19061881854158</v>
+        <v>0.1505955020200389</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3694861392223032</v>
+        <v>0.2344727709091501</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.02187237158779</v>
+        <v>4.907124198956524</v>
       </c>
       <c r="C20">
-        <v>0.2657542330462377</v>
+        <v>0.7537246391001986</v>
       </c>
       <c r="D20">
-        <v>0.05395979959142494</v>
+        <v>0.1866178640922982</v>
       </c>
       <c r="E20">
-        <v>0.04961930863836495</v>
+        <v>0.01603165227687875</v>
       </c>
       <c r="F20">
-        <v>7.235763362737998</v>
+        <v>9.7426167273197</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1913216586355233</v>
+        <v>0.1536622864413957</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3697948361024004</v>
+        <v>0.2426482062056721</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.123705192434045</v>
+        <v>5.592199959436641</v>
       </c>
       <c r="C21">
-        <v>0.2878925442060449</v>
+        <v>0.8722833387686819</v>
       </c>
       <c r="D21">
-        <v>0.06053040357393513</v>
+        <v>0.2139534071253166</v>
       </c>
       <c r="E21">
-        <v>0.0495005378489155</v>
+        <v>0.01607062973374307</v>
       </c>
       <c r="F21">
-        <v>7.483680625061538</v>
+        <v>10.86846375936068</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1937058413397921</v>
+        <v>0.1643741065159787</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3711405955454978</v>
+        <v>0.2713954378851327</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.19306119409049</v>
+        <v>6.062107444676769</v>
       </c>
       <c r="C22">
-        <v>0.3025967111972818</v>
+        <v>0.9535517752139526</v>
       </c>
       <c r="D22">
-        <v>0.06482951492927214</v>
+        <v>0.2326325031160792</v>
       </c>
       <c r="E22">
-        <v>0.04942739151961795</v>
+        <v>0.01611030375216549</v>
       </c>
       <c r="F22">
-        <v>7.647599656653426</v>
+        <v>11.638291903121</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1952815536459056</v>
+        <v>0.1717356769659446</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.37225038042817</v>
+        <v>0.2912944276418443</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.155787212222151</v>
+        <v>5.809038495555626</v>
       </c>
       <c r="C23">
-        <v>0.2947270187350455</v>
+        <v>0.9097857038593418</v>
       </c>
       <c r="D23">
-        <v>0.06253446271823293</v>
+        <v>0.2225789079650013</v>
       </c>
       <c r="E23">
-        <v>0.04946602208923689</v>
+        <v>0.01608769119618014</v>
       </c>
       <c r="F23">
-        <v>7.559937092225027</v>
+        <v>11.22392874739171</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1944389275098359</v>
+        <v>0.1677696332004857</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3716369810959463</v>
+        <v>0.2805611019868053</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.020255065615629</v>
+        <v>4.896251574979317</v>
       </c>
       <c r="C24">
-        <v>0.2653963136114612</v>
+        <v>0.751841426805413</v>
       </c>
       <c r="D24">
-        <v>0.05385246764842577</v>
+        <v>0.1861828099558949</v>
       </c>
       <c r="E24">
-        <v>0.04962132562153987</v>
+        <v>0.01603122700653459</v>
       </c>
       <c r="F24">
-        <v>7.231742563504042</v>
+        <v>9.724711769308186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1912829779117331</v>
+        <v>0.1534924697538997</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3697767236867122</v>
+        <v>0.2421948017395579</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.885998975846519</v>
+        <v>3.986202509465954</v>
       </c>
       <c r="C25">
-        <v>0.234744377173115</v>
+        <v>0.5938615274664869</v>
       </c>
       <c r="D25">
-        <v>0.0444990311174962</v>
+        <v>0.1495829881437771</v>
       </c>
       <c r="E25">
-        <v>0.04980813781521609</v>
+        <v>0.01601990429272571</v>
       </c>
       <c r="F25">
-        <v>6.885560666850381</v>
+        <v>8.221184904678523</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1879502952349839</v>
+        <v>0.1392966225072456</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3687570434240541</v>
+        <v>0.2046244815629876</v>
       </c>
       <c r="M25">
         <v>0</v>
